--- a/PIPO flags_QAQC 2024-03-18 .xlsx
+++ b/PIPO flags_QAQC 2024-03-18 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/edeegan_nps_gov/Documents/FFIqaqc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1637" documentId="11_2F60EF7EEBC1C4B5DB622485458E26809936517A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5590771F-373C-4F3A-98D7-22F5315DC2D0}"/>
+  <xr:revisionPtr revIDLastSave="2070" documentId="11_2F60EF7EEBC1C4B5DB622485458E26809936517A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C44E2AA1-C7A0-46CC-B86D-822BAEC74132}"/>
   <bookViews>
-    <workbookView xWindow="22710" yWindow="-15870" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22710" yWindow="-15870" windowWidth="25440" windowHeight="15390" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIPO-01" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,11 @@
     <sheet name="Comments" sheetId="29" r:id="rId29"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8206" uniqueCount="2907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9224" uniqueCount="2986">
   <si>
     <t>Issue</t>
   </si>
@@ -8811,6 +8810,243 @@
   </si>
   <si>
     <t xml:space="preserve">these trees have tags in 02 post datasheets but they weren't put in - all pole trees were tagged 999. theres also no dbh in 02 post data sheets but there are in the database. 02pre dbh data was taken the same year and those dbhs match up with the database, but how did they decide which 999 tree to put the dbh in? it must have been by height and status (hopefully?), which there are a lot of repeats of. </t>
+  </si>
+  <si>
+    <t>ESD 3/28/24</t>
+  </si>
+  <si>
+    <t>change crown class to CS</t>
+  </si>
+  <si>
+    <t>typo in database</t>
+  </si>
+  <si>
+    <t>change crown class to SC</t>
+  </si>
+  <si>
+    <t>doesn't meet threshold of concern</t>
+  </si>
+  <si>
+    <t>01Pre datasheet has an arrow pointing to the number 78, but tree tag 78 doesn't exist in this database? Big dbh change unusual. Don’t see 508 on 01yr01 datasheet or 78 but note in 01yr02 says not found in 92 added in 98 with a dbh of 48. 5. 01yr05 says missing tag 508 new tag #78. 508 reappears in 2015</t>
+  </si>
+  <si>
+    <t>change 2011 and 2012 to D, D on datasheet</t>
+  </si>
+  <si>
+    <t>change 2007 to alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change 2011 to D </t>
+  </si>
+  <si>
+    <t>change 2012 to D</t>
+  </si>
+  <si>
+    <t>note in QAQC report - YOD 1994</t>
+  </si>
+  <si>
+    <t>not worth fixing</t>
+  </si>
+  <si>
+    <t>note in QAQC - YOD 1990</t>
+  </si>
+  <si>
+    <t>note in QAQC - YOD 1995</t>
+  </si>
+  <si>
+    <t>note in QAQC - YOD 2010</t>
+  </si>
+  <si>
+    <t>note in QAQC - YOD 2002</t>
+  </si>
+  <si>
+    <t>note in QAQC - YOD 1998</t>
+  </si>
+  <si>
+    <t>note in QAQC - YOD 1994</t>
+  </si>
+  <si>
+    <t>no fuel sheet in 2009, 2010, or 2014</t>
+  </si>
+  <si>
+    <t>look for physical data sheet</t>
+  </si>
+  <si>
+    <t>ask Windy</t>
+  </si>
+  <si>
+    <t>that’s what it says on the datasheet</t>
+  </si>
+  <si>
+    <t>comments say 5 x 5 m plot closest to P1</t>
+  </si>
+  <si>
+    <t>change to CS</t>
+  </si>
+  <si>
+    <t>capitalization error</t>
+  </si>
+  <si>
+    <t>RS on datasheet</t>
+  </si>
+  <si>
+    <t>nothing on datasheet</t>
+  </si>
+  <si>
+    <t>nothing on datasheet, not sure where these crown classes came from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change 1998 to L? </t>
+  </si>
+  <si>
+    <t>every other year is L except 2006, inconclusive</t>
+  </si>
+  <si>
+    <t>not worth change YOD 1997</t>
+  </si>
+  <si>
+    <t>confirmed with data sheets, dead and down the next year</t>
+  </si>
+  <si>
+    <t>confirmed with data sheets</t>
+  </si>
+  <si>
+    <t>2004 data sheet says this tree is dead and down and 2005 says no tag so a different tree was tagged with a super different dbh</t>
+  </si>
+  <si>
+    <t>duplicate tag issue</t>
+  </si>
+  <si>
+    <t>no fuel datasheet found</t>
+  </si>
+  <si>
+    <t>data sheet says transect 3 was missing in FEAT?</t>
+  </si>
+  <si>
+    <t>no crown class recorded on data sheet, unsure if this is worth fixing but the fix would be deleting it</t>
+  </si>
+  <si>
+    <t>pretty drastic dbh change 20 to 27, worth fixing</t>
+  </si>
+  <si>
+    <t>change to resting dbh from 2010</t>
+  </si>
+  <si>
+    <t>change to resting dbh from 2001</t>
+  </si>
+  <si>
+    <t>small change not worth fixing YOD 2011</t>
+  </si>
+  <si>
+    <t>small change not worth fixing YOD 2010</t>
+  </si>
+  <si>
+    <t>small change not worth fixing YOD 1996</t>
+  </si>
+  <si>
+    <t>small change not worth fixing YOD 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change 2002 03Pre to L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">, Y was circled then erased </t>
+  </si>
+  <si>
+    <t>change 2011 to D</t>
+  </si>
+  <si>
+    <t>N was circled then erased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change 2010 to resting dbh </t>
+  </si>
+  <si>
+    <t>large dbh change from 27 to 21</t>
+  </si>
+  <si>
+    <t>all pole trees tagged 999 have subfrac 0.25 which is correct?</t>
+  </si>
+  <si>
+    <t>no burn data for pole trees</t>
+  </si>
+  <si>
+    <t>note this comment in QAQC report</t>
+  </si>
+  <si>
+    <t>small change not worth fixing YOD 1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change 1997 status to L </t>
+  </si>
+  <si>
+    <t>every other year is L</t>
+  </si>
+  <si>
+    <t>change 2010 dbh to 38.7 and 2011 dbh to 38.7</t>
+  </si>
+  <si>
+    <t>typo in database, these years have dbh 51</t>
+  </si>
+  <si>
+    <t>change 1997 to resting dbh from 1996</t>
+  </si>
+  <si>
+    <t>large increase in dbh while dead +9</t>
+  </si>
+  <si>
+    <t>small change not worth fixing YOD 2012</t>
+  </si>
+  <si>
+    <t>change 1995 to D</t>
+  </si>
+  <si>
+    <t>every other year is D</t>
+  </si>
+  <si>
+    <t>two different trees probably, different species and different dbhs</t>
+  </si>
+  <si>
+    <t>change 1998 to L?</t>
+  </si>
+  <si>
+    <t>alive for 12 years after</t>
+  </si>
+  <si>
+    <t>alive for 12 years after and growing</t>
+  </si>
+  <si>
+    <t>large increase in dbh, not sure why</t>
+  </si>
+  <si>
+    <t>no fuel datasheet</t>
+  </si>
+  <si>
+    <t>ESD 3/29/24</t>
+  </si>
+  <si>
+    <t>change to SC</t>
+  </si>
+  <si>
+    <t>delete damage code</t>
+  </si>
+  <si>
+    <t>delete dbh</t>
+  </si>
+  <si>
+    <t>delete height</t>
+  </si>
+  <si>
+    <t>no fuel data sheet</t>
+  </si>
+  <si>
+    <t>change to LBS</t>
+  </si>
+  <si>
+    <t>change to INSE</t>
+  </si>
+  <si>
+    <t>ESD 3</t>
   </si>
 </sst>
 </file>
@@ -10506,8 +10742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:E81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10536,91 +10772,307 @@
       <c r="A2" t="s">
         <v>82</v>
       </c>
+      <c r="B2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>648</v>
       </c>
+      <c r="B3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>649</v>
       </c>
+      <c r="B4" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>650</v>
       </c>
+      <c r="B5" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>651</v>
       </c>
+      <c r="B6" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>652</v>
       </c>
+      <c r="B7" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>653</v>
       </c>
+      <c r="B8" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>654</v>
       </c>
+      <c r="B9" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>655</v>
       </c>
+      <c r="B10" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>656</v>
       </c>
+      <c r="B11" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>657</v>
       </c>
+      <c r="B12" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>658</v>
       </c>
+      <c r="B13" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>659</v>
       </c>
+      <c r="B14" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>660</v>
       </c>
+      <c r="B15" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>661</v>
       </c>
+      <c r="B16" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>662</v>
       </c>
+      <c r="B17" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>663</v>
       </c>
+      <c r="B18" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2928</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>664</v>
       </c>
+      <c r="B19" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2929</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -10983,156 +11435,528 @@
       <c r="A41" t="s">
         <v>686</v>
       </c>
+      <c r="B41" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2930</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2931</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>687</v>
       </c>
+      <c r="B42" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2932</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>688</v>
       </c>
+      <c r="B43" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2814</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2933</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>689</v>
       </c>
+      <c r="B44" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2814</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2933</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>690</v>
       </c>
+      <c r="B45" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2814</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2933</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>691</v>
       </c>
+      <c r="B46" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2934</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>692</v>
       </c>
+      <c r="B47" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2934</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>709</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2934</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>710</v>
       </c>
+      <c r="B65" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2934</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>711</v>
       </c>
+      <c r="B66" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2934</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>712</v>
       </c>
+      <c r="B67" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2934</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>713</v>
       </c>
+      <c r="B68" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2934</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>714</v>
       </c>
+      <c r="B69" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2934</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>715</v>
       </c>
+      <c r="B70" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2934</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>716</v>
       </c>
+      <c r="B71" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2934</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
@@ -11478,50 +12302,161 @@
       <c r="A92" t="s">
         <v>60</v>
       </c>
+      <c r="B92" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2931</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>725</v>
       </c>
+      <c r="B93" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2939</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>726</v>
       </c>
+      <c r="B94" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2936</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>727</v>
       </c>
+      <c r="B95" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2937</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2941</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>733</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2936</v>
       </c>
     </row>
   </sheetData>
@@ -11535,8 +12470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11593,41 +12528,137 @@
       <c r="A4" t="s">
         <v>82</v>
       </c>
+      <c r="B4" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2942</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>736</v>
       </c>
+      <c r="B5" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2942</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>737</v>
       </c>
+      <c r="B6" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2942</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>738</v>
       </c>
+      <c r="B7" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2942</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>739</v>
       </c>
+      <c r="B8" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2943</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>740</v>
       </c>
+      <c r="B9" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2942</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>741</v>
       </c>
+      <c r="B10" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2943</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>742</v>
       </c>
+      <c r="B11" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2942</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -11922,6 +12953,18 @@
       <c r="A29" t="s">
         <v>760</v>
       </c>
+      <c r="B29" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2944</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
@@ -12403,60 +13446,183 @@
       <c r="A58" t="s">
         <v>60</v>
       </c>
+      <c r="B58" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2782</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>771</v>
       </c>
+      <c r="B59" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2946</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2945</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>772</v>
       </c>
+      <c r="B60" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2950</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>773</v>
       </c>
+      <c r="B61" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2949</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>774</v>
       </c>
+      <c r="B62" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2956</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2957</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>775</v>
       </c>
+      <c r="B63" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2948</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2947</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2954</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>781</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2952</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2953</v>
       </c>
     </row>
   </sheetData>
@@ -12470,8 +13636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13282,361 +14448,1009 @@
       <c r="A48" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B111" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>838</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2959</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>838</v>
       </c>
+      <c r="B113" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>838</v>
       </c>
+      <c r="B114" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>838</v>
       </c>
+      <c r="B115" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>838</v>
       </c>
+      <c r="B116" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>838</v>
       </c>
+      <c r="B117" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>838</v>
       </c>
+      <c r="B118" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>839</v>
       </c>
+      <c r="B119" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2960</v>
+      </c>
       <c r="E119" t="s">
         <v>2906</v>
       </c>
@@ -13645,158 +15459,465 @@
       <c r="A120" t="s">
         <v>839</v>
       </c>
+      <c r="B120" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E120" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>839</v>
       </c>
+      <c r="B121" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>839</v>
       </c>
+      <c r="B122" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>839</v>
       </c>
+      <c r="B123" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>839</v>
       </c>
+      <c r="B124" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>840</v>
       </c>
+      <c r="B125" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E125" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>60</v>
       </c>
+      <c r="B126" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E126" t="s">
+        <v>2782</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>841</v>
       </c>
+      <c r="B127" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E127" t="s">
+        <v>2950</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2964</v>
+      </c>
+      <c r="E128" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E129" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B130" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E130" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E131" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B132" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B133" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E133" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E134" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E135" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B136" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B137" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E137" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2969</v>
+      </c>
+      <c r="E138" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E139" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E140" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B141" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E141" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B142" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B144" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E144" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B145" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B146" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B147" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E147" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B148" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2962</v>
+      </c>
+      <c r="E148" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B149" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2969</v>
+      </c>
+      <c r="E149" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>864</v>
       </c>
+      <c r="B150" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E150" t="s">
+        <v>2973</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -13806,8 +15927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13892,36 +16013,120 @@
       <c r="A6" t="s">
         <v>82</v>
       </c>
+      <c r="B6" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>869</v>
       </c>
+      <c r="B7" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>870</v>
       </c>
+      <c r="B8" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>871</v>
       </c>
+      <c r="B9" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>872</v>
       </c>
+      <c r="B10" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>873</v>
       </c>
+      <c r="B11" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>874</v>
       </c>
+      <c r="B12" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2780</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -15185,208 +17390,335 @@
       <c r="A87" t="s">
         <v>949</v>
       </c>
+      <c r="B87" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>950</v>
       </c>
+      <c r="B88" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>951</v>
       </c>
+      <c r="B89" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>952</v>
       </c>
+      <c r="B90" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>953</v>
       </c>
+      <c r="B91" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>954</v>
       </c>
+      <c r="B92" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>955</v>
       </c>
+      <c r="B93" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>956</v>
       </c>
+      <c r="B94" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>957</v>
       </c>
+      <c r="B95" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E126" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>988</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -15396,8 +17728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15468,71 +17800,215 @@
       <c r="A5" t="s">
         <v>82</v>
       </c>
+      <c r="B5" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>992</v>
       </c>
+      <c r="B6" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>993</v>
       </c>
+      <c r="B7" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>994</v>
       </c>
+      <c r="B8" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>995</v>
       </c>
+      <c r="B9" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>996</v>
       </c>
+      <c r="B10" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>997</v>
       </c>
+      <c r="B11" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>998</v>
       </c>
+      <c r="B12" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>999</v>
       </c>
+      <c r="B13" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1000</v>
       </c>
+      <c r="B14" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1001</v>
       </c>
+      <c r="B15" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1002</v>
       </c>
+      <c r="B16" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1003</v>
       </c>
+      <c r="B17" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1004</v>
       </c>
+      <c r="B18" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -15725,93 +18201,138 @@
       <c r="A30" t="s">
         <v>1016</v>
       </c>
+      <c r="B30" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2978</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1017</v>
       </c>
+      <c r="B31" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2814</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1034</v>
       </c>
@@ -16216,152 +18737,170 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E140" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B151" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E151" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>1143</v>
       </c>
@@ -16377,7 +18916,7 @@
   <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16462,31 +19001,103 @@
       <c r="A6" t="s">
         <v>82</v>
       </c>
+      <c r="B6" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2942</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1148</v>
       </c>
+      <c r="B7" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2942</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1149</v>
       </c>
+      <c r="B8" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2942</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1150</v>
       </c>
+      <c r="B9" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2942</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1151</v>
       </c>
+      <c r="B10" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2942</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1152</v>
       </c>
+      <c r="B11" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2942</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -16949,82 +19560,91 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1176</v>
       </c>
@@ -17120,7 +19740,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17163,31 +19783,103 @@
       <c r="A3" t="s">
         <v>82</v>
       </c>
+      <c r="B3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1194</v>
       </c>
+      <c r="B4" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1195</v>
       </c>
+      <c r="B5" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1196</v>
       </c>
+      <c r="B6" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1197</v>
       </c>
+      <c r="B7" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1198</v>
       </c>
+      <c r="B8" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -17525,129 +20217,147 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1232</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2811</v>
       </c>
     </row>
   </sheetData>
@@ -17660,8 +20370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:E28"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17690,31 +20400,103 @@
       <c r="A2" t="s">
         <v>82</v>
       </c>
+      <c r="B2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1233</v>
       </c>
+      <c r="B3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1234</v>
       </c>
+      <c r="B4" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1235</v>
       </c>
+      <c r="B5" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1236</v>
       </c>
+      <c r="B6" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1237</v>
       </c>
+      <c r="B7" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -17725,46 +20507,127 @@
       <c r="A9" t="s">
         <v>1238</v>
       </c>
+      <c r="B9" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1239</v>
       </c>
+      <c r="B10" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1240</v>
       </c>
+      <c r="B11" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1241</v>
       </c>
+      <c r="B12" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1242</v>
       </c>
+      <c r="B13" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1243</v>
       </c>
+      <c r="B14" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1244</v>
       </c>
+      <c r="B15" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1245</v>
       </c>
+      <c r="B16" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1246</v>
       </c>
+      <c r="B17" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -17991,88 +20854,115 @@
       <c r="A31" t="s">
         <v>1260</v>
       </c>
+      <c r="B31" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2727</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1272</v>
       </c>
@@ -18317,67 +21207,76 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1301</v>
       </c>
@@ -18392,8 +21291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18422,56 +21321,188 @@
       <c r="A2" t="s">
         <v>82</v>
       </c>
+      <c r="B2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1302</v>
       </c>
+      <c r="B3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1303</v>
       </c>
+      <c r="B4" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1304</v>
       </c>
+      <c r="B5" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1305</v>
       </c>
+      <c r="B6" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1306</v>
       </c>
+      <c r="B7" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1307</v>
       </c>
+      <c r="B8" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1308</v>
       </c>
+      <c r="B9" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1309</v>
       </c>
+      <c r="B10" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1310</v>
       </c>
+      <c r="B11" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1311</v>
       </c>
+      <c r="B12" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -18933,74 +21964,80 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>1381</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2985</v>
       </c>
     </row>
   </sheetData>
@@ -37544,7 +40581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B52" sqref="B52:E52"/>
     </sheetView>
   </sheetViews>
@@ -39454,8 +42491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39804,16 +42841,49 @@
       <c r="A21" t="s">
         <v>565</v>
       </c>
+      <c r="B21" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2909</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>566</v>
       </c>
+      <c r="B22" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2909</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>567</v>
       </c>
+      <c r="B23" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2782</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -40023,40 +43093,124 @@
       <c r="A36" t="s">
         <v>60</v>
       </c>
+      <c r="B36" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2782</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>580</v>
       </c>
+      <c r="B37" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2911</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>581</v>
       </c>
+      <c r="B38" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2912</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>582</v>
       </c>
+      <c r="B39" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2811</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>583</v>
       </c>
+      <c r="B40" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2909</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>584</v>
       </c>
+      <c r="B41" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2909</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>585</v>
       </c>
+      <c r="B42" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2909</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>586</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2909</v>
       </c>
     </row>
   </sheetData>
@@ -40070,8 +43224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:E51"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40967,60 +44121,198 @@
       <c r="A53" t="s">
         <v>60</v>
       </c>
+      <c r="B53" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2782</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>637</v>
       </c>
+      <c r="B54" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2920</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2918</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>638</v>
       </c>
+      <c r="B55" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2918</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>639</v>
       </c>
+      <c r="B56" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2918</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>640</v>
       </c>
+      <c r="B57" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2918</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>641</v>
       </c>
+      <c r="B58" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2920</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2918</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>642</v>
       </c>
+      <c r="B59" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2920</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2918</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>643</v>
       </c>
+      <c r="B60" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2918</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>644</v>
       </c>
+      <c r="B61" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2918</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>645</v>
       </c>
+      <c r="B62" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2918</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>646</v>
       </c>
+      <c r="B63" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2918</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>647</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2811</v>
       </c>
     </row>
   </sheetData>
